--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_16/scGEM_Nlim__D_0_16_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_16/scGEM_Nlim__D_0_16_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374977 ala__L_c + 0.148148 arg__L_c + 0.178085 asn__L_c + 0.178085 asp__L_c + 0.005373 cys__L_c + 0.297065 gln__L_c + 0.297065 glu__L_c + 0.341202 gly_c + 0.074074 his__L_c + 0.226061 ile__L_c + 0.307427 leu__L_c + 0.252159 lys__L_c + 0.043754 met__L_c + 0.144310 phe__L_c + 0.161965 pro__L_c + 0.204568 ser__L_c + 0.213779 thr__L_c + 0.024947 trp__L_c + 0.075226 tyr__L_c + 0.281329 val__L_c + 0.688162 mannan_c + 1.067879 13BDglucan_c + 0.281021 16BDglucan_c + 0.025247 chtn_c + 0.514840 glycogen_c + 0.025806 tre_c + 0.003378 ergstest_c + 0.013192 ergst_c + 0.003429 pail_c + 0.012795 pc_c + 0.003439 pe_c + 0.002953 ps_c + 0.003403 tag_c + 0.001909 ipcbiom_c + 0.000734 ffabiom_c + 0.041537 ctp_c + 0.042745 gtp_c + 0.055662 utp_c + 0.004046 datp_c + 0.002731 dctp_c + 0.002731 dgtp_c + 0.004046 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.057200 atp_c + 94.355254 h2o_c --&gt; 3.829600 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.025844 ppi_c</t>
+    <t xml:space="preserve">0.374977 ala__L_c + 0.148148 arg__L_c + 0.178085 asn__L_c + 0.178085 asp__L_c + 0.005373 cys__L_c + 0.297065 gln__L_c + 0.297065 glu__L_c + 0.341202 gly_c + 0.074074 his__L_c + 0.226061 ile__L_c + 0.307427 leu__L_c + 0.252159 lys__L_c + 0.043754 met__L_c + 0.144310 phe__L_c + 0.161965 pro__L_c + 0.204568 ser__L_c + 0.213779 thr__L_c + 0.024947 trp__L_c + 0.075226 tyr__L_c + 0.281329 val__L_c + 0.688162 mannan_c + 1.067879 13BDglucan_c + 0.281021 16BDglucan_c + 0.025247 chtn_c + 0.514840 glycogen_c + 0.025806 tre_c + 0.003378 ergstest_c + 0.013192 ergst_c + 0.003429 pail_c + 0.012795 pc_c + 0.003439 pe_c + 0.002953 ps_c + 0.003403 tag_c + 0.001909 ipcbiom_c + 0.000734 ffabiom_c + 0.041537 ctp_c + 0.042745 gtp_c + 0.055662 utp_c + 0.004046 datp_c + 0.002731 dctp_c + 0.002731 dgtp_c + 0.004046 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.335288 atp_c + 135.633342 h2o_c --&gt; 3.829600 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.025844 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14888,10 +14888,10 @@
   </sheetPr>
   <dimension ref="A1:N594"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A594" activeCellId="0" sqref="A594"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34314,10 +34314,10 @@
   </sheetPr>
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A495" activeCellId="0" sqref="A495"/>
+      <selection pane="bottomLeft" activeCell="B487" activeCellId="0" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
